--- a/Стратегия тестировани, Test Case.xlsx
+++ b/Стратегия тестировани, Test Case.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ПрогИнж\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF4F05A-5098-488B-ABB8-FA46613BEC44}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19680" windowHeight="11235" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19680" windowHeight="11235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
     <sheet name="Чек-лист+дефекты" sheetId="2" r:id="rId2"/>
-    <sheet name="Тест-кейс" sheetId="3" r:id="rId3"/>
+    <sheet name="Тест-кейс" sheetId="4" r:id="rId3"/>
     <sheet name="Дефект" sheetId="8" r:id="rId4"/>
     <sheet name="Отчет" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>Тест-кейсы</t>
   </si>
@@ -31,9 +32,6 @@
     <t>№:</t>
   </si>
   <si>
-    <t>Тест-кейс 1</t>
-  </si>
-  <si>
     <t>Результат</t>
   </si>
   <si>
@@ -235,12 +233,6 @@
     <t>Проверить работу всех кнопок</t>
   </si>
   <si>
-    <t>Вход в личный кабинет ребенка</t>
-  </si>
-  <si>
-    <t>Тест-кейс для проверки возможности входа в ЛК</t>
-  </si>
-  <si>
     <t>Открыть приложение "Детский сад"</t>
   </si>
   <si>
@@ -275,6 +267,45 @@
   </si>
   <si>
     <t>Открылась страница личного кабинета ребенка</t>
+  </si>
+  <si>
+    <t>Тест-кейс для проверки возможности отправки сообщения воспитателю</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Отправить ссобщение"</t>
+  </si>
+  <si>
+    <t>Откроется страница для отправки сообщения воспитателю</t>
+  </si>
+  <si>
+    <t>Открылась страница для отправки сообщения</t>
+  </si>
+  <si>
+    <t>Пустая форма для ввода сообщения</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Отправить сообщение"</t>
+  </si>
+  <si>
+    <t>Предупреждение "Вы не ввели сообщение!", сообщение не отправилось</t>
+  </si>
+  <si>
+    <t>Заполнить форму для ввода сообщения</t>
+  </si>
+  <si>
+    <t>Оставить форму для ввода сообщения пустой</t>
+  </si>
+  <si>
+    <t>Заполненная форма для ввода сообщения</t>
+  </si>
+  <si>
+    <t>Отправленное сообщение, уведомление об успешной отправке сообщения</t>
+  </si>
+  <si>
+    <t>Отсутствие предупреждения, отправленное сообщение, уведомление об успешной отправке сообщения</t>
+  </si>
+  <si>
+    <t>Отправленное сообщение, уведомление об успешной отправке</t>
   </si>
   <si>
     <t>Отправка пустого сообщения</t>
@@ -299,15 +330,6 @@
  Сообщение отправляется, предупреждение не появляется, появляется уведомление об успешной отправке сообщения</t>
   </si>
   <si>
-    <t>Оставить поля логина и пароля пользователя пустыми</t>
-  </si>
-  <si>
-    <t>Вход не осуществлен, появление уведомления о неправильном вводе логина или пароля</t>
-  </si>
-  <si>
-    <t>Вход не осуществлен, появление уведомления о неправильном вводе или логине</t>
-  </si>
-  <si>
     <t>Main Page</t>
   </si>
   <si>
@@ -399,12 +421,15 @@
   </si>
   <si>
     <t>Артемов, Бокова, Васильева</t>
+  </si>
+  <si>
+    <t>Тест-кейс</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
@@ -736,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -920,6 +945,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -957,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -965,10 +1003,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1102,6 +1136,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,7 +1154,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1121,63 +1168,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="28" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1211,7 +1251,7 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1235,20 +1275,20 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1263,8 +1303,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,9 +1316,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1306,11 +1343,11 @@
     <xf numFmtId="0" fontId="38" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1344,7 +1381,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1561,14 +1598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1617,8 +1654,8 @@
     </row>
     <row r="3" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="16" t="s">
-        <v>64</v>
+      <c r="B3" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1654,7 +1691,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1672,8 +1709,8 @@
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="17" t="s">
-        <v>65</v>
+      <c r="B6" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1709,7 +1746,7 @@
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1727,8 +1764,8 @@
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="17" t="s">
-        <v>117</v>
+      <c r="B9" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1763,39 +1800,39 @@
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58" t="s">
+      <c r="B11" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="G11" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="H11" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="58" t="s">
+      <c r="I11" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="58" t="s">
+      <c r="M11" s="56" t="s">
         <v>24</v>
-      </c>
-      <c r="M11" s="58" t="s">
-        <v>25</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1806,27 +1843,27 @@
         <f t="shared" ref="B12:B16" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50">
+      <c r="C12" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48">
         <v>1</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="52">
+      <c r="F12" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="50">
         <v>0.5</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="49" t="s">
-        <v>32</v>
+      <c r="H12" s="51"/>
+      <c r="I12" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="J12" s="129"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="9"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
@@ -1836,27 +1873,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55">
+      <c r="C13" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53">
         <v>2</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="52">
+      <c r="F13" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="50">
         <v>0.5</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="49" t="s">
-        <v>32</v>
+      <c r="H13" s="51"/>
+      <c r="I13" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="J13" s="129"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="9"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
@@ -1866,27 +1903,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55">
+      <c r="C14" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53">
         <v>1</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="52">
+      <c r="F14" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="50">
         <v>0.5</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="49" t="s">
-        <v>32</v>
+      <c r="H14" s="51"/>
+      <c r="I14" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="J14" s="129"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="9"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
@@ -1896,27 +1933,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C15" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55">
+      <c r="C15" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53">
         <v>2</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="49" t="s">
-        <v>34</v>
-      </c>
       <c r="J15" s="129"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="9"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
@@ -1926,34 +1963,34 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C16" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="56"/>
+      <c r="C16" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="54"/>
       <c r="E16" s="126">
         <v>1</v>
       </c>
-      <c r="F16" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="52">
+      <c r="F16" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="50">
         <v>0.5</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="49" t="s">
-        <v>32</v>
+      <c r="H16" s="51"/>
+      <c r="I16" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="J16" s="129"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="9"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="113"/>
       <c r="D17" s="114"/>
@@ -2551,420 +2588,420 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
     </row>
     <row r="56" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
     </row>
     <row r="58" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
     </row>
     <row r="61" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
     </row>
     <row r="62" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
     </row>
     <row r="63" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
     </row>
     <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
     </row>
     <row r="65" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
     </row>
     <row r="66" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
     </row>
     <row r="68" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
     </row>
     <row r="69" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
     </row>
     <row r="70" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
     </row>
     <row r="71" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
     </row>
     <row r="72" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
     </row>
     <row r="73" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
     </row>
     <row r="74" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
     </row>
     <row r="76" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
     </row>
     <row r="77" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2973,14 +3010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2992,55 +3029,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="137" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="138"/>
-      <c r="K1" s="139"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="136" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="137"/>
+      <c r="K1" s="138"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="134"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="20">
+      <c r="A2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="18">
         <v>43955</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="94" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>91</v>
+      <c r="A3" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="98"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3049,13 +3086,13 @@
       <c r="K3" s="96"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="98"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -3064,15 +3101,15 @@
       <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>92</v>
+      <c r="A5" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+        <v>108</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="97">
         <v>2</v>
       </c>
@@ -3082,20 +3119,20 @@
         <v>2</v>
       </c>
       <c r="J5" s="96" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K5" s="96" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+        <v>109</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="97">
         <v>3</v>
       </c>
@@ -3105,20 +3142,20 @@
         <v>3</v>
       </c>
       <c r="J6" s="96" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K6" s="96" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+        <v>110</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="99"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3128,14 +3165,14 @@
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+        <v>111</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="98"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -3144,13 +3181,13 @@
       <c r="K8" s="96"/>
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+        <v>112</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="97">
         <v>1</v>
       </c>
@@ -3160,22 +3197,22 @@
         <v>1</v>
       </c>
       <c r="J9" s="96" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K9" s="96" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>94</v>
+      <c r="A10" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+        <v>113</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="98"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -3184,15 +3221,15 @@
       <c r="K10" s="96"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>98</v>
+      <c r="A11" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="98"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -3201,13 +3238,13 @@
       <c r="K11" s="96"/>
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+        <v>115</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="98"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3216,13 +3253,13 @@
       <c r="K12" s="96"/>
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+        <v>116</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="98"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -3231,15 +3268,15 @@
       <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>111</v>
+      <c r="A14" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+        <v>117</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="98"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -3249,10 +3286,10 @@
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="100" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B15" s="101" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C15" s="100"/>
       <c r="D15" s="100"/>
@@ -3283,7 +3320,7 @@
       <c r="C17" s="104"/>
       <c r="D17" s="104"/>
       <c r="E17" s="104"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -3293,7 +3330,7 @@
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -3306,7 +3343,7 @@
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -3319,7 +3356,7 @@
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -3332,7 +3369,7 @@
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -3345,7 +3382,7 @@
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -3358,7 +3395,7 @@
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -3371,7 +3408,7 @@
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -3384,7 +3421,7 @@
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -3397,7 +3434,7 @@
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -3410,7 +3447,7 @@
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -3423,7 +3460,7 @@
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -3436,7 +3473,7 @@
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -3449,7 +3486,7 @@
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -3462,7 +3499,7 @@
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -3475,7 +3512,7 @@
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -3488,7 +3525,7 @@
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -3501,7 +3538,7 @@
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -3513,8 +3550,8 @@
     </row>
     <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -3527,20 +3564,20 @@
     <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="11"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3553,7 +3590,7 @@
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="11"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -3565,8 +3602,8 @@
     </row>
     <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3578,34 +3615,34 @@
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="11"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="11"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -3618,7 +3655,7 @@
     <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="12"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -3631,7 +3668,7 @@
     <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="11"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3644,7 +3681,7 @@
     <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="11"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -3657,7 +3694,7 @@
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -3670,7 +3707,7 @@
     <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="11"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3683,7 +3720,7 @@
     <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -3696,7 +3733,7 @@
     <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="11"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -3709,7 +3746,7 @@
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="11"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3722,7 +3759,7 @@
     <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="11"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -3735,7 +3772,7 @@
     <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="12"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -3748,7 +3785,7 @@
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="12"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -3761,7 +3798,7 @@
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="12"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3774,7 +3811,7 @@
     <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="12"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -3787,7 +3824,7 @@
     <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="11"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -3800,7 +3837,7 @@
     <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="11"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -3813,7 +3850,7 @@
     <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="11"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -3826,7 +3863,7 @@
     <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="11"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -3839,7 +3876,7 @@
     <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="11"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3852,7 +3889,7 @@
     <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="11"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -3865,7 +3902,7 @@
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -3878,7 +3915,7 @@
     <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="11"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3891,7 +3928,7 @@
     <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="11"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -3904,7 +3941,7 @@
     <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="11"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -3916,47 +3953,47 @@
     </row>
     <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
-      <c r="B66" s="11"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="12"/>
+      <c r="F66" s="10"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
-      <c r="B67" s="11"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="12"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="11"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="12"/>
+      <c r="F68" s="10"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="11"/>
+      <c r="C69" s="9"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3969,7 +4006,7 @@
     <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="12"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -3982,7 +4019,7 @@
     <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="12"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -3995,7 +4032,7 @@
     <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="11"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -4008,7 +4045,7 @@
     <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="11"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -4020,21 +4057,21 @@
     </row>
     <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
-      <c r="B74" s="11"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="12"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="11"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -4047,7 +4084,7 @@
     <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="11"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -4060,7 +4097,7 @@
     <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="12"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -4073,7 +4110,7 @@
     <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="12"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -4086,7 +4123,7 @@
     <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="11"/>
+      <c r="C79" s="9"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -4099,7 +4136,7 @@
     <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="11"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -4111,21 +4148,21 @@
     </row>
     <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="12"/>
+      <c r="F81" s="10"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="11"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -4138,7 +4175,7 @@
     <row r="83" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="12"/>
+      <c r="C83" s="10"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -4151,7 +4188,7 @@
     <row r="84" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="11"/>
+      <c r="C84" s="9"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -4164,7 +4201,7 @@
     <row r="85" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="11"/>
+      <c r="C85" s="9"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -4177,41 +4214,41 @@
     <row r="86" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="11"/>
+      <c r="C86" s="9"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="12"/>
+      <c r="F86" s="10"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
     </row>
     <row r="87" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="12"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
     </row>
     <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
-      <c r="B88" s="11"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="12"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4223,14 +4260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4240,252 +4277,310 @@
     <col min="3" max="3" width="55.7109375" customWidth="1"/>
     <col min="4" max="4" width="63.5703125" customWidth="1"/>
     <col min="5" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" customWidth="1"/>
+    <col min="8" max="8" width="43" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="79"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="31">
+        <v>1</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="32">
+        <v>43956</v>
+      </c>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="I6" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="58">
         <v>1</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="140" t="s">
+      <c r="C7" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="34">
-        <v>43956</v>
-      </c>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="60">
-        <v>1</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>31</v>
+      <c r="E7" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="58">
+        <v>2</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="58">
+        <v>3</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="62">
-        <v>2</v>
-      </c>
-      <c r="C8" s="63" t="s">
+      <c r="E9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="58">
+        <v>4</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="E10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="63">
+        <v>5</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="65"/>
-    </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="130">
-        <v>3</v>
-      </c>
-      <c r="C9" s="79" t="s">
+      <c r="D11" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="68"/>
+    </row>
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="71">
+        <v>6</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="75"/>
+    </row>
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="82">
+        <v>7</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="85"/>
+    </row>
+    <row r="14" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="82">
+        <v>8</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="85"/>
+      <c r="H14" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="85"/>
+    </row>
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="82">
+        <v>9</v>
+      </c>
+      <c r="C15" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="71"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="130">
-        <v>4</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81" t="s">
+      <c r="D15" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="71"/>
-    </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="84">
-        <v>5</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="88"/>
-    </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="68">
-        <v>6</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="70"/>
-    </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="68">
-        <v>7</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="78"/>
-    </row>
-    <row r="17" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="15"/>
+      <c r="E15" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="85"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="82">
+        <v>10</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4496,128 +4591,128 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="15"/>
+    <col min="1" max="1" width="18.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="90">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="142" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-    </row>
-    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="83">
+      <c r="D2" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="90">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="23" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="B5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="B6" s="89">
+        <v>43956</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="82">
-        <v>43956</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="B7" s="147" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+    </row>
+    <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="148" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-    </row>
-    <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="146"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4630,14 +4725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4648,386 +4743,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="150" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="B3" s="44">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="46">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-    </row>
-    <row r="4" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="B4" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="47">
+      <c r="B7" s="45">
         <v>2</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="40">
         <f t="shared" ref="C7:C8" si="0">(($B$7/$B$7)*100%)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="48">
+      <c r="A8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="46">
         <v>2</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="48">
+      <c r="A9" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="46">
         <v>1</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <f>(($B$9/$B$7)*100%)</f>
         <v>0.5</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="48">
+      <c r="A10" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="46">
         <v>1</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <f>(($B$10/$B$7)*100%)</f>
         <v>0.5</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="47">
+      <c r="A12" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="45">
         <v>3</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="41">
         <f>(($B$12/$B$12)*100%)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="48">
+      <c r="A13" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="46">
         <v>1</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="41">
         <f t="shared" ref="C13:C17" si="1">((B13/$B$12)*100%)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="48">
+      <c r="A14" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="46">
         <v>0</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="48">
+      <c r="A15" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="46">
         <v>0</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="48">
+      <c r="A16" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="46">
         <v>0</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="48">
+      <c r="A17" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="46">
         <v>2</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="41">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="153" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="2">
